--- a/employee.xlsx
+++ b/employee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,31 +489,21 @@
           <t>21:50</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>magin</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ok 2</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alice</t>
+          <t>charlie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +518,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21:50</t>
+          <t>20:07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -550,64 +540,96 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>keyboard not working</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>bob</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>new keyboard is given</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>charlie</t>
+          <t>mohan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>keyboard not working</t>
+          <t>network issue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20:08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>bob</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>new keyboard is given</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pradeepa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>login issue</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Open</t>
         </is>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -530,59 +530,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>charlie</t>
+          <t>mohan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>keyboard not working</t>
+          <t>network issue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20:08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>bob</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>new keyboard is given</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mohan</t>
+          <t>pradeepa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>network issue</t>
+          <t>login issue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -592,7 +582,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sridhar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>login 1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -604,32 +604,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pradeepa</t>
+          <t>mohan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>login issue</t>
+          <t>netrwork down</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sridhar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>resolved network issue</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alice</t>
+          <t>charlie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,39 +486,49 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21:50</t>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>magin</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>new mouse is given</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>charlie</t>
+          <t>mohan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>network issue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -530,17 +540,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mohan</t>
+          <t>pradeepa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>network issue</t>
+          <t>login issue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -550,7 +560,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sridhar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>login 1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -562,84 +582,150 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pradeepa</t>
+          <t>mohan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>login issue</t>
+          <t>netrwork down</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sridhar</t>
+          <t>sridhar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>login 1</t>
+          <t>resolved network issue</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mohan</t>
+          <t>frank</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>netrwork down</t>
+          <t>summmaaaa....</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>05:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>sridhar</t>
+          <t>magin</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>resolved network issue</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>mouse not working</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:57</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>keyboard not working</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Open</t>
         </is>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,9 +721,105 @@
           <t>19:23</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mouse not working</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mouse not working</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mouse not working</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Open</t>
         </is>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frank</t>
+          <t>charlie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>summmaaaa....</t>
+          <t>mouse not working</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -644,22 +644,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>05:09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>magin</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok</t>
+          <t>18:57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
     </row>
@@ -676,7 +666,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>keyboard not working</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -686,7 +676,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:57</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -708,7 +698,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>keyboard not working</t>
+          <t>mouse not working</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -718,7 +708,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,56 +762,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>monitor glitching</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kavin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>monitor replaced</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>charlie</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>mouse not working</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19:34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +634,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>keyboard not working</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:57</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>keyboard not working</t>
+          <t>mouse not working</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,62 +730,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mouse not working</t>
+          <t>monitor glitching</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>15:01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kavin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>monitor replaced</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>charlie</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>monitor glitching</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-06-25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15:01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kavin</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>monitor replaced</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,9 +738,121 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1"/>
-    <row r="8" ht="29.25" customHeight="1"/>
-    <row r="9" ht="17.25" customHeight="1"/>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" t="n">
+        <v>5791</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ertyuioiuytre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29.25" customHeight="1">
+      <c r="A8" t="n">
+        <v>3460</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ertyuioiuytre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" t="n">
+        <v>4387</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>charlie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ertyuioiuytre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ertyuioiuyt</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
